--- a/case_studies/Summary.xlsx
+++ b/case_studies/Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4225692D-9DAE-444A-98A4-04481D37A7D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219D53B8-55EE-4682-BF6B-7C9E1C102365}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{D43A00FB-7EF8-49E0-B060-0E458E1CF464}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{D43A00FB-7EF8-49E0-B060-0E458E1CF464}"/>
   </bookViews>
   <sheets>
     <sheet name="TDR" sheetId="2" r:id="rId1"/>
@@ -14,12 +14,13 @@
     <sheet name="7d stats" sheetId="1" r:id="rId4"/>
     <sheet name="5d stats" sheetId="4" r:id="rId5"/>
     <sheet name="3d stats" sheetId="6" r:id="rId6"/>
+    <sheet name="Plots" sheetId="10" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -15709,6 +15710,3111 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>7d / T2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'7d stats'!$B$30:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58611111111111114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59908136482939633</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13793103448275862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69685039370078738</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10344827586206896</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44094488188976377</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1724137931034482E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B115-4EE9-BE64-A62A9691A9C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5d / T2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'5d stats'!$B$29:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.53611111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53055555555555556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7777777777777779E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86777777777777776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65464382326420201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25862068965517243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78809738503156002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53471596032461677</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1724137931034482E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B115-4EE9-BE64-A62A9691A9C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3d / T2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3d stats'!$B$28:$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>SS PCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SS BR PCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SS MT PCA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SS D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SS BR D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SS MT D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SS AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SS BR AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SS MT AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MS BR PCA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MS MT PCA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MS BR D-PCA </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MS MT D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MS BR AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MS MT AD-PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3d stats'!$B$29:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.87555555555555553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92944444444444441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92944444444444441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6111111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8584615384615385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94461538461538463</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52923076923076928</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9411764705882353E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B115-4EE9-BE64-A62A9691A9C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1819114463"/>
+        <c:axId val="1819366335"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1819114463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819366335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1819366335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TDR (T</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7766208524226017E-3"/>
+              <c:y val="0.29781458852913095"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819114463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>7d / T2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'7d stats'!$B$33:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.96944444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82722222222222219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61055555555555552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9444444444444444E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0555555555555557E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58727034120734911</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3884514435695538</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1724137931034482E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3543307086614173</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4482758620689655E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B115-4EE9-BE64-A62A9691A9C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5d / T2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'5d stats'!$B$32:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.89777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92277777777777781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85944444444444446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9444444444444444E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0555555555555557E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99729486023444547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39655172413793105</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94319206492335439</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44827586206896552</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94319206492335439</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4482758620689655E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B115-4EE9-BE64-A62A9691A9C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3d / T2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3d stats'!$B$28:$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>SS PCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SS BR PCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SS MT PCA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SS D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SS BR D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SS MT D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SS AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SS BR AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SS MT AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MS BR PCA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MS MT PCA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MS BR D-PCA </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MS MT D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MS BR AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MS MT AD-PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3d stats'!$B$32:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.99944444444444447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9505555555555556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9966666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97777777777777775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38388888888888889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8888888888888891E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0555555555555557E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99692307692307691</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9411764705882353E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88461538461538458</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8235294117647065E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56923076923076921</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9411764705882353E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B115-4EE9-BE64-A62A9691A9C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1819114463"/>
+        <c:axId val="1819366335"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1819114463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819366335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1819366335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TDR (SPE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7766208524226017E-3"/>
+              <c:y val="0.29781458852913095"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819114463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>7d / T2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'7d stats'!$B$31:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.3789028047274647E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23377138825189628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8198976891868059E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41704886223319809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4099488445934028E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8198976891868059E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2919386135120831E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4099488445934028E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8539588197834853E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6450008024394159E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6881766079388666E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6231744503290006E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5495648482275526E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8146364949446319E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B115-4EE9-BE64-A62A9691A9C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5d / T2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'5d stats'!$B$30:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.7216418202449426E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2055796846265211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0346676057440231E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2476425245529599E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43252337911335448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5260007043080173E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9994913330985636E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6953867824862071E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5651289274954024E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.722895512610547E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4207952370827127E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9963969865705869E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14118647671698917</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12322305928594825</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4806860868948899E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B115-4EE9-BE64-A62A9691A9C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3d / T2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3d stats'!$B$28:$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>SS PCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SS BR PCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SS MT PCA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SS D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SS BR D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SS MT D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SS AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SS BR AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SS MT AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MS BR PCA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MS MT PCA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MS BR D-PCA </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MS MT D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MS BR AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MS MT AD-PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3d stats'!$B$30:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.6846402928340136E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74313670280163313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2772068140222441E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14768407715049978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74732507391243141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11245248486554976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7990989722652399E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5943967337744613E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1117837533436576E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4406005884143248E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7520946278955149E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34188901288424473</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18137013307047806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15248047073145987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0596352883193692E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B115-4EE9-BE64-A62A9691A9C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1819114463"/>
+        <c:axId val="1819366335"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1819114463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819366335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1819366335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FDR (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>T</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7766208524226017E-3"/>
+              <c:y val="0.29781458852913095"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819114463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>7d / SPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'7d stats'!$B$34:$P$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.7945404833303934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81650202857646847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30834362321397074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6600811430587404E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75895219615452458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3789028047274647E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14126512417745701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2839030653185683E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0384207174697519E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3270743058899051E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6298025896837192E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6048788316482105E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B115-4EE9-BE64-A62A9691A9C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5d / SPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'5d stats'!$B$33:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.16649058966232344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79007708259967913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3381852330085691E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69343037132683805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1816723402590289E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2169268693508624E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88889616770389779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0399744843716773E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73619390763183756</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7809908568998512E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72440222731739268</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5438372669926999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B115-4EE9-BE64-A62A9691A9C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3d / SPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3d stats'!$B$28:$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>SS PCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SS BR PCA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SS MT PCA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SS D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SS BR D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SS MT D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SS AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SS BR AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SS MT AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MS BR PCA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MS MT PCA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MS BR D-PCA </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MS MT D-PCA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MS BR AD-PCA</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MS MT AD-PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3d stats'!$B$33:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.70772912853723779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68742080810924966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66042517246233989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63064902154019431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49278473884274249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.248838518935661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0951710544840212E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87846200669574925</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2178413011335633E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36522268438673022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.086742237555446E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46393425991681037</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7496303597831445E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B115-4EE9-BE64-A62A9691A9C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1819114463"/>
+        <c:axId val="1819366335"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1819114463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819366335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1819366335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FDR (SPE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7766208524226017E-3"/>
+              <c:y val="0.29781458852913095"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819114463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>True Detection Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>T2 / 3d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('7d stats'!$B$29,'7d stats'!$O$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SS PCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MS BR AD-PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('3d stats'!$B$29,'3d stats'!$O$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.87555555555555553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52923076923076928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-641E-437C-85D7-CE0E74944651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>T2 / 5d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('5d stats'!$B$29,'5d stats'!$O$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.53611111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53471596032461677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-641E-437C-85D7-CE0E74944651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>T2 / 7d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('7d stats'!$B$29,'7d stats'!$O$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SS PCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MS BR AD-PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('7d stats'!$B$30,'7d stats'!$O$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44094488188976377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-641E-437C-85D7-CE0E74944651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539071935"/>
+        <c:axId val="727288319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539071935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727288319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="727288319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539071935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>True Detection Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SPE / 3d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('7d stats'!$B$29,'7d stats'!$O$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SS PCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MS BR AD-PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('3d stats'!$B$32,'3d stats'!$O$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.99944444444444447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56923076923076921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-641E-437C-85D7-CE0E74944651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SPE / 5d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('5d stats'!$B$32,'5d stats'!$O$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.89777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94319206492335439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-641E-437C-85D7-CE0E74944651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SPE / 7d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('7d stats'!$B$29,'7d stats'!$O$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SS PCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MS BR AD-PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('7d stats'!$B$33,'7d stats'!$O$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.96944444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3543307086614173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-641E-437C-85D7-CE0E74944651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539071935"/>
+        <c:axId val="727288319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539071935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727288319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="727288319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539071935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -16255,6 +19361,848 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>False Detection Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>T2 / 3d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('7d stats'!$B$29,'7d stats'!$O$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SS PCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MS BR AD-PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('3d stats'!$B$30,'3d stats'!$O$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.6846402928340136E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15248047073145987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-641E-437C-85D7-CE0E74944651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>T2 / 5d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('5d stats'!$B$30,'5d stats'!$O$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.7216418202449426E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12322305928594825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-641E-437C-85D7-CE0E74944651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>T2 / 7d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('7d stats'!$B$29,'7d stats'!$O$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SS PCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MS BR AD-PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('7d stats'!$B$31,'7d stats'!$O$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.3789028047274647E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5495648482275526E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-641E-437C-85D7-CE0E74944651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539071935"/>
+        <c:axId val="727288319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539071935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727288319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="727288319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539071935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>False Detection Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SPE / 3d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('7d stats'!$B$29,'7d stats'!$O$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SS PCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MS BR AD-PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('3d stats'!$B$33,'3d stats'!$O$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.70772912853723779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46393425991681037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-641E-437C-85D7-CE0E74944651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SPE / 5d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('5d stats'!$B$33,'5d stats'!$O$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.16649058966232344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72440222731739268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-641E-437C-85D7-CE0E74944651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SPE / 7d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('7d stats'!$B$29,'7d stats'!$O$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SS PCA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MS BR AD-PCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('7d stats'!$B$34,'7d stats'!$O$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.7945404833303934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6298025896837192E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-641E-437C-85D7-CE0E74944651}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="539071935"/>
+        <c:axId val="727288319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539071935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727288319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="727288319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539071935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -19978,7 +23926,327 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors37.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors38.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors39.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors40.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors41.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -33799,7 +38067,4031 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style37.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style38.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style39.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style40.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style41.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -38135,6 +46427,307 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>592594</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>213732</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>163017</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9AAC32-E2CB-4A1D-A43A-7E85AA48A11D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>135162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>201931</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>112557</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84A59EA-725F-4C4A-AFDF-1FD68E2BB501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203573</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>5449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67749</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>158104</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F85995B-491B-4B8C-BC5E-D1A6EB3A18F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207544</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>131452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>96253</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>116467</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198BFDDA-F297-4E1A-9F0F-39A55A639C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E778C120-F22F-415B-9B67-7893813EE8B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE40573-6D66-465B-9581-08D8A804C92D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03D70A2-B414-4644-B44F-37013D807D94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898C3D34-AE09-40F4-9E74-EC8CCD3C305F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40076,7 +48669,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:S11"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42034,8 +50627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42240,7 +50833,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B4" si="2">B13*2491/(2491+1471+1800)+B23*1471/(2491+1471+1800)+B32*1800/(2491+1471+1800)</f>
         <v>0.46008330440819156</v>
       </c>
       <c r="C4" s="2">
@@ -42305,7 +50898,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B5" si="3">B14*2491/(2491+1471+1800)+B24*1471/(2491+1471+1800)+B33*1800/(2491+1471+1800)</f>
         <v>0.39586948976049985</v>
       </c>
       <c r="C5" s="2">
@@ -42370,7 +50963,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B6" si="4">B15*2491/(2491+1471+1800)+B25*1471/(2491+1471+1800)+B34*1800/(2491+1471+1800)</f>
         <v>0.24858879050059815</v>
       </c>
       <c r="C6" s="2">
@@ -42435,7 +51028,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B7" si="5">B16*2491/(2491+1471+1800)+B26*1471/(2491+1471+1800)+B35*1800/(2491+1471+1800)</f>
         <v>0.17181534189517528</v>
       </c>
       <c r="C7" s="2">
@@ -43612,8 +52205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F340F35-2A6B-49D5-B1BA-4C3525E1B073}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45184,8 +53777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED2C2E0-213A-4BEB-B282-9106F389447D}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O29" activeCellId="1" sqref="B29 O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46750,4 +55343,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F37CB1F-5EAD-4064-B900-376CAB820089}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>